--- a/fastqFiles/fastq_1476.xlsx
+++ b/fastqFiles/fastq_1476.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C396C-D0DB-DB4A-A81E-2DB8F02B6365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>02.16.15</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_TGAGGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_GCTTAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_ATGACAG.fastq.gz</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_ATCGAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_TACTCTA.fastq.gz</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +100,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,220 +424,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="B3:B7 E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>libraryDate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>libraryPreparer</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>librarySampleNumber</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>runNumber</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fastqFileName</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1476</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_TGAGGTT.fastq.gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1476</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_GCTTAGA.fastq.gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1476</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_ATGACAG.fastq.gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1476</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_CACCTCC.fastq.gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1476</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_ATCGAGC.fastq.gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02.16.15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>1476</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Retrofitted_1476</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>sequence/run_1476_samples/run_1476_s_3_withindex_sequence_TACTCTA.fastq.gz</t>
-        </is>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_1476.xlsx
+++ b/fastqFiles/fastq_1476.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C396C-D0DB-DB4A-A81E-2DB8F02B6365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929FBC5-79B6-2F4A-A5D7-1AB7A2CD2676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18280" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>libraryDate</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B7 E2:E7"/>
+      <selection activeCell="D8" sqref="D8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,7 +470,7 @@
         <v>1476</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -487,7 +490,7 @@
         <v>1476</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -507,7 +510,7 @@
         <v>1476</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -527,7 +530,7 @@
         <v>1476</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -547,7 +550,7 @@
         <v>1476</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -567,7 +570,7 @@
         <v>1476</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>

--- a/fastqFiles/fastq_1476.xlsx
+++ b/fastqFiles/fastq_1476.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
